--- a/ULS_Tawarruq_Ajith/TestData/TawarruqTestData.xlsx
+++ b/ULS_Tawarruq_Ajith/TestData/TawarruqTestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tawarruq_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationDetails_AppData" sheetId="5" r:id="rId2"/>
     <sheet name="Appdata_ApplicationDetailsExe" sheetId="11" r:id="rId3"/>
     <sheet name="InsuranceInfoTestData" sheetId="12" r:id="rId4"/>
+    <sheet name="EmploymentDetailsTestData" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
   <si>
     <t>UserName</t>
   </si>
@@ -332,6 +333,15 @@
   </si>
   <si>
     <t>AT_TW_INS_001</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_01_D1</t>
+  </si>
+  <si>
+    <t>3611</t>
   </si>
 </sst>
 </file>
@@ -533,7 +543,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -563,6 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -1395,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1551,9 +1562,25 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1566,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1665,4 +1692,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ULS_Tawarruq_Ajith/TestData/TawarruqTestData.xlsx
+++ b/ULS_Tawarruq_Ajith/TestData/TawarruqTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Tawarruq_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Appdata_ApplicationDetailsExe" sheetId="11" r:id="rId3"/>
     <sheet name="InsuranceInfoTestData" sheetId="12" r:id="rId4"/>
     <sheet name="EmploymentDetailsTestData" sheetId="13" r:id="rId5"/>
+    <sheet name="AdhocPaymentTestData" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t>UserName</t>
   </si>
@@ -342,13 +343,127 @@
   </si>
   <si>
     <t>3611</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_02</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_03</t>
+  </si>
+  <si>
+    <t>Nature of Employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company/Firm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensioner </t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_02_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_EMPD_03_D1</t>
+  </si>
+  <si>
+    <t>AT_TW_INS_002</t>
+  </si>
+  <si>
+    <t>AT_TW_INS_002_D1</t>
+  </si>
+  <si>
+    <t>TW_APD_01</t>
+  </si>
+  <si>
+    <t>TW_APD_02</t>
+  </si>
+  <si>
+    <t>TW_APD_03</t>
+  </si>
+  <si>
+    <t>TW_APD_04</t>
+  </si>
+  <si>
+    <t>TW_APD_05</t>
+  </si>
+  <si>
+    <t>TW_APD_06</t>
+  </si>
+  <si>
+    <t>TW_APD_01_D1</t>
+  </si>
+  <si>
+    <t>TW_APD_02_D1</t>
+  </si>
+  <si>
+    <t>TW_APD_03_D1</t>
+  </si>
+  <si>
+    <t>TW_APD_04_D1</t>
+  </si>
+  <si>
+    <t>TW_APD_05_D1</t>
+  </si>
+  <si>
+    <t>TW_APD_06_D1</t>
+  </si>
+  <si>
+    <t>3841</t>
+  </si>
+  <si>
+    <t>3129</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Transaction Against</t>
+  </si>
+  <si>
+    <t>Paid Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include in Loan </t>
+  </si>
+  <si>
+    <t>@$#%</t>
+  </si>
+  <si>
+    <t>$%$^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid to Third Party </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing Fees </t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>userType03</t>
+  </si>
+  <si>
+    <t>Reference number</t>
+  </si>
+  <si>
+    <t>ValidInput</t>
+  </si>
+  <si>
+    <t>InValidInput</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +511,13 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -448,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -534,6 +656,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,7 +676,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -574,6 +707,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -870,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,9 +1054,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1406,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1578,9 +1727,153 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C18">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1591,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,6 +1982,26 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="23">
+        <v>3220</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1696,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1707,9 +2020,10 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -1719,8 +2033,11 @@
       <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>105</v>
       </c>
@@ -1730,6 +2047,223 @@
       <c r="C2" s="27" t="s">
         <v>107</v>
       </c>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="27">
+        <v>23</v>
+      </c>
+      <c r="G2" s="27">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27">
+        <v>6000</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
